--- a/Code/Results/Cases/Case_2_245/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_245/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.964924869524395</v>
+        <v>0.8274975676880558</v>
       </c>
       <c r="C2">
-        <v>0.3503897090995594</v>
+        <v>0.2026139200537216</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03948886058463641</v>
+        <v>0.1087810853287143</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0007945672585282625</v>
+        <v>0.002426634525031254</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2575844415961903</v>
+        <v>0.6385094511219727</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1593970563741323</v>
+        <v>0.203175727809878</v>
       </c>
       <c r="M2">
-        <v>0.3495044319858067</v>
+        <v>0.1985441872694409</v>
       </c>
       <c r="N2">
-        <v>0.8054240324556474</v>
+        <v>1.293369678917308</v>
       </c>
       <c r="O2">
-        <v>1.310262395762322</v>
+        <v>2.417229885097413</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.708744208823362</v>
+        <v>0.7512529339883827</v>
       </c>
       <c r="C3">
-        <v>0.3173508387128123</v>
+        <v>0.1916004488447243</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04069234667130006</v>
+        <v>0.1096980128860374</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0007983032208575792</v>
+        <v>0.002429146138284032</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.26204028618411</v>
+        <v>0.6455826104999822</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1447875964074186</v>
+        <v>0.2004646143127573</v>
       </c>
       <c r="M3">
-        <v>0.3049331090750798</v>
+        <v>0.1860604183255745</v>
       </c>
       <c r="N3">
-        <v>0.8216551509984953</v>
+        <v>1.302063999176454</v>
       </c>
       <c r="O3">
-        <v>1.259994389977209</v>
+        <v>2.427600879706233</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.551676422611763</v>
+        <v>0.7045184088714791</v>
       </c>
       <c r="C4">
-        <v>0.2970226816662631</v>
+        <v>0.1847795741160922</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04148103880108955</v>
+        <v>0.1102965299168699</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008006745365774504</v>
+        <v>0.002430771511706303</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2654945952180228</v>
+        <v>0.6503059831908793</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1359883806194873</v>
+        <v>0.1988999989937028</v>
       </c>
       <c r="M4">
-        <v>0.2776763666277589</v>
+        <v>0.1784516546754773</v>
       </c>
       <c r="N4">
-        <v>0.8326064917310347</v>
+        <v>1.307890540282827</v>
       </c>
       <c r="O4">
-        <v>1.232438901650184</v>
+        <v>2.435587458445767</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.487708481476204</v>
+        <v>0.6854951171162895</v>
       </c>
       <c r="C5">
-        <v>0.2887260020816882</v>
+        <v>0.1819854238413825</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04181476477974355</v>
+        <v>0.1105493743245409</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008016606627799982</v>
+        <v>0.002431454855690387</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2670754242636093</v>
+        <v>0.6523263944119009</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1324429887036587</v>
+        <v>0.1982876215282161</v>
       </c>
       <c r="M5">
-        <v>0.2665926583514988</v>
+        <v>0.1753653973838603</v>
       </c>
       <c r="N5">
-        <v>0.837310428658931</v>
+        <v>1.310387829895291</v>
       </c>
       <c r="O5">
-        <v>1.221997887928481</v>
+        <v>2.439248778321513</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.477088444977682</v>
+        <v>0.6823376450221872</v>
       </c>
       <c r="C6">
-        <v>0.2873475111224764</v>
+        <v>0.1815205802414823</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04187091907388529</v>
+        <v>0.1105918994889628</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008018256131661644</v>
+        <v>0.002431569593995919</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2673481664468547</v>
+        <v>0.6526676542480985</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1318566415939983</v>
+        <v>0.1981874616234407</v>
       </c>
       <c r="M6">
-        <v>0.2647535295816112</v>
+        <v>0.1748538012519134</v>
       </c>
       <c r="N6">
-        <v>0.8381058935041708</v>
+        <v>1.310809932378774</v>
       </c>
       <c r="O6">
-        <v>1.220310513983577</v>
+        <v>2.439881293404127</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.550813597064604</v>
+        <v>0.704261765717149</v>
       </c>
       <c r="C7">
-        <v>0.2969108443180488</v>
+        <v>0.1847419501135903</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04148548986814982</v>
+        <v>0.1102999036354189</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008006877551911434</v>
+        <v>0.002430780642464943</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2655152233091478</v>
+        <v>0.6503328441715368</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1359404062212093</v>
+        <v>0.1988916380717001</v>
       </c>
       <c r="M7">
-        <v>0.2775267973933779</v>
+        <v>0.1784099738407789</v>
       </c>
       <c r="N7">
-        <v>0.8326689626335622</v>
+        <v>1.307923721654852</v>
       </c>
       <c r="O7">
-        <v>1.23229495634007</v>
+        <v>2.435635189905383</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.876534605267381</v>
+        <v>0.8011925676100304</v>
       </c>
       <c r="C8">
-        <v>0.3390052816029652</v>
+        <v>0.198828707928044</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03989338664756836</v>
+        <v>0.1090898771582713</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0007958395519779507</v>
+        <v>0.002427483291439807</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2589671071976092</v>
+        <v>0.6408692822157356</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1543225723750936</v>
+        <v>0.2022202146972134</v>
       </c>
       <c r="M8">
-        <v>0.3341108203125174</v>
+        <v>0.1942282180910908</v>
       </c>
       <c r="N8">
-        <v>0.8108119344960514</v>
+        <v>1.296266254751025</v>
       </c>
       <c r="O8">
-        <v>1.292215954276173</v>
+        <v>2.420469634731063</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.518024460690356</v>
+        <v>0.9918608934855797</v>
       </c>
       <c r="C9">
-        <v>0.4213283269589567</v>
+        <v>0.2259833581679231</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0371744000070855</v>
+        <v>0.1069982920322254</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0007869308696510261</v>
+        <v>0.002421674798611098</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2521804772435097</v>
+        <v>0.625332577035838</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.191854980289925</v>
+        <v>0.2095388465632979</v>
       </c>
       <c r="M9">
-        <v>0.4461475596367492</v>
+        <v>0.2256869047645154</v>
       </c>
       <c r="N9">
-        <v>0.7760823625824429</v>
+        <v>1.277272558767564</v>
       </c>
       <c r="O9">
-        <v>1.438078633970008</v>
+        <v>2.403590992233148</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.992447649160567</v>
+        <v>1.132253242147726</v>
       </c>
       <c r="C10">
-        <v>0.4818462203345177</v>
+        <v>0.2456430196029089</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03543451640551343</v>
+        <v>0.1056322804678764</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007807275018255286</v>
+        <v>0.002417804250824028</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2514036317196613</v>
+        <v>0.6157635399931927</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2205255883099539</v>
+        <v>0.2153959790571349</v>
       </c>
       <c r="M10">
-        <v>0.5294218678088853</v>
+        <v>0.2490593723451298</v>
       </c>
       <c r="N10">
-        <v>0.7559839591266524</v>
+        <v>1.26566601191869</v>
       </c>
       <c r="O10">
-        <v>1.565628299326875</v>
+        <v>2.399057532363742</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.209300935036254</v>
+        <v>1.196178622355717</v>
       </c>
       <c r="C11">
-        <v>0.5094271424577244</v>
+        <v>0.2545226664589393</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0347017307191626</v>
+        <v>0.1050477374489445</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007779742384349103</v>
+        <v>0.002416128794583092</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2520867494794494</v>
+        <v>0.6118119837818128</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2338515951538227</v>
+        <v>0.2181643680961685</v>
       </c>
       <c r="M11">
-        <v>0.5675874135968968</v>
+        <v>0.2597469823635308</v>
       </c>
       <c r="N11">
-        <v>0.7481259114685699</v>
+        <v>1.260893956070539</v>
       </c>
       <c r="O11">
-        <v>1.628815443262852</v>
+        <v>2.398709456904811</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.291596991584242</v>
+        <v>1.220393029426759</v>
       </c>
       <c r="C12">
-        <v>0.5198823841406295</v>
+        <v>0.2578758916685615</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03443292899020456</v>
+        <v>0.1048316746376452</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007769410537108125</v>
+        <v>0.002415506542154874</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2525054418835602</v>
+        <v>0.6103734347964149</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2389425594878958</v>
+        <v>0.219227579119206</v>
       </c>
       <c r="M12">
-        <v>0.5820869131017332</v>
+        <v>0.2638018788175955</v>
       </c>
       <c r="N12">
-        <v>0.7453447997134361</v>
+        <v>1.259159787759003</v>
       </c>
       <c r="O12">
-        <v>1.653551113728156</v>
+        <v>2.398824580735038</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.273864633917128</v>
+        <v>1.215177723353634</v>
       </c>
       <c r="C13">
-        <v>0.5176301130857155</v>
+        <v>0.2571541308872156</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03449042975925476</v>
+        <v>0.1048779724698878</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007771631574056654</v>
+        <v>0.00241564001333815</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2524079700364972</v>
+        <v>0.6106806790537114</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2378440762638547</v>
+        <v>0.2189979367608146</v>
       </c>
       <c r="M13">
-        <v>0.5789619900396019</v>
+        <v>0.2629282441560647</v>
       </c>
       <c r="N13">
-        <v>0.7459349457981403</v>
+        <v>1.259530031274224</v>
       </c>
       <c r="O13">
-        <v>1.648186813637608</v>
+        <v>2.398788797549173</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.216067728239977</v>
+        <v>1.198170618868687</v>
       </c>
       <c r="C14">
-        <v>0.5102870603148517</v>
+        <v>0.2547987256699003</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0346794406490547</v>
+        <v>0.1050298558491836</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.000777889051731635</v>
+        <v>0.002416077357102172</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2521179232952342</v>
+        <v>0.6116924741736689</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2342695127442482</v>
+        <v>0.2182515412223438</v>
       </c>
       <c r="M14">
-        <v>0.5687793160325114</v>
+        <v>0.2600804275203075</v>
       </c>
       <c r="N14">
-        <v>0.7478931500122314</v>
+        <v>1.260749824524716</v>
       </c>
       <c r="O14">
-        <v>1.630833875451231</v>
+        <v>2.398713976862894</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.18068960459118</v>
+        <v>1.187754179240642</v>
       </c>
       <c r="C15">
-        <v>0.5057907663884293</v>
+        <v>0.2533547556920155</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0347963543158567</v>
+        <v>0.1051235775505166</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007783348951473876</v>
+        <v>0.002416346830921794</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.25196143724704</v>
+        <v>0.6123197604460984</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2320859306041001</v>
+        <v>0.217796288549934</v>
       </c>
       <c r="M15">
-        <v>0.5625484529855029</v>
+        <v>0.2583370575230219</v>
       </c>
       <c r="N15">
-        <v>0.7491182460277983</v>
+        <v>1.261506474140148</v>
       </c>
       <c r="O15">
-        <v>1.620311955611527</v>
+        <v>2.398700317647979</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.978299088090864</v>
+        <v>1.128076659515955</v>
       </c>
       <c r="C16">
-        <v>0.4800450701513626</v>
+        <v>0.2450614201785584</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03548360770360759</v>
+        <v>0.1056712226543111</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007809087774864822</v>
+        <v>0.002417915457038833</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2513807661364851</v>
+        <v>0.6160298694909905</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2196607377765929</v>
+        <v>0.2152171444485731</v>
       </c>
       <c r="M16">
-        <v>0.5269338908992722</v>
+        <v>0.2483620061749434</v>
       </c>
       <c r="N16">
-        <v>0.7565241786540255</v>
+        <v>1.26598808543266</v>
       </c>
       <c r="O16">
-        <v>1.56160828072052</v>
+        <v>2.399114811172808</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.854424620350869</v>
+        <v>1.091480852753591</v>
       </c>
       <c r="C17">
-        <v>0.4642664564140091</v>
+        <v>0.2399573200645477</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03592042146858354</v>
+        <v>0.1060166195389227</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0007825050434620482</v>
+        <v>0.002418899559327077</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2512975913734117</v>
+        <v>0.6184087868985166</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2121136243653297</v>
+        <v>0.2136615004606597</v>
       </c>
       <c r="M17">
-        <v>0.5051624604995339</v>
+        <v>0.2422566500025454</v>
       </c>
       <c r="N17">
-        <v>0.7614033302604923</v>
+        <v>1.268867388351211</v>
       </c>
       <c r="O17">
-        <v>1.526963315751459</v>
+        <v>2.399808448581751</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.783270900920797</v>
+        <v>1.070437662347956</v>
       </c>
       <c r="C18">
-        <v>0.4551955838644801</v>
+        <v>0.2370155965576259</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03617717441189061</v>
+        <v>0.1062187529492311</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007834296670717171</v>
+        <v>0.002419473618898123</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2513466146263141</v>
+        <v>0.6198148578431102</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.207799169044236</v>
+        <v>0.2127765233942398</v>
       </c>
       <c r="M18">
-        <v>0.4926664068715496</v>
+        <v>0.2387502348259147</v>
       </c>
       <c r="N18">
-        <v>0.7643299985922809</v>
+        <v>1.270571292514326</v>
       </c>
       <c r="O18">
-        <v>1.507518343969025</v>
+        <v>2.400368735230103</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.759195031675006</v>
+        <v>1.063313829966091</v>
       </c>
       <c r="C19">
-        <v>0.4521250222022957</v>
+        <v>0.2360185571340878</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03626504540295539</v>
+        <v>0.106287788169297</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0007837438575460163</v>
+        <v>0.0024196693664835</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2513795271153825</v>
+        <v>0.6202974153492669</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2063427955214507</v>
+        <v>0.2124785685008277</v>
       </c>
       <c r="M19">
-        <v>0.4884397915011149</v>
+        <v>0.2375639271657946</v>
       </c>
       <c r="N19">
-        <v>0.7653412929015673</v>
+        <v>1.271156419462812</v>
       </c>
       <c r="O19">
-        <v>1.501015454947549</v>
+        <v>2.400586133212158</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.867601168550323</v>
+        <v>1.095375953952896</v>
       </c>
       <c r="C20">
-        <v>0.4659456188170736</v>
+        <v>0.2405012802727242</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03587334995731339</v>
+        <v>0.1059794923638435</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007823344493215461</v>
+        <v>0.00241879396917367</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2512963433998117</v>
+        <v>0.6181516362639776</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2129142630351879</v>
+        <v>0.2138260888517607</v>
       </c>
       <c r="M20">
-        <v>0.5074773009684179</v>
+        <v>0.2429060365687548</v>
       </c>
       <c r="N20">
-        <v>0.7608714156598495</v>
+        <v>1.268555934841942</v>
       </c>
       <c r="O20">
-        <v>1.530600997175497</v>
+        <v>2.399717910063799</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.233038991760452</v>
+        <v>1.203165832043737</v>
       </c>
       <c r="C21">
-        <v>0.5124435655119157</v>
+        <v>0.255490819022782</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03462368573462271</v>
+        <v>0.1049851005024554</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.000777675587216098</v>
+        <v>0.002415948567998071</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2521986833967986</v>
+        <v>0.6113937154807623</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2353182031912127</v>
+        <v>0.2184703723113586</v>
       </c>
       <c r="M21">
-        <v>0.5717688855735332</v>
+        <v>0.2609166923254094</v>
       </c>
       <c r="N21">
-        <v>0.7473126163390589</v>
+        <v>1.260389563962477</v>
       </c>
       <c r="O21">
-        <v>1.635908378651294</v>
+        <v>2.39872924842075</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.472929083901477</v>
+        <v>1.273654374632258</v>
       </c>
       <c r="C22">
-        <v>0.5428983693007865</v>
+        <v>0.2652330449294311</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03385772399126097</v>
+        <v>0.1043660430787217</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007746854026993523</v>
+        <v>0.002414160056544225</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2537267055782593</v>
+        <v>0.6073140830137795</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.250222998870413</v>
+        <v>0.2215923941707985</v>
       </c>
       <c r="M22">
-        <v>0.6140645536904401</v>
+        <v>0.2727326497463451</v>
       </c>
       <c r="N22">
-        <v>0.7395902201262601</v>
+        <v>1.255477266517886</v>
       </c>
       <c r="O22">
-        <v>1.709476646876368</v>
+        <v>2.399522610089349</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.344788315512517</v>
+        <v>1.236029967128275</v>
       </c>
       <c r="C23">
-        <v>0.5266367775548986</v>
+        <v>0.2600384553234676</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03426180195776407</v>
+        <v>0.1046936274952666</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007762764795008974</v>
+        <v>0.002415108129327538</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2528215008910983</v>
+        <v>0.6094605883122455</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2422426446342314</v>
+        <v>0.2199181997372932</v>
       </c>
       <c r="M23">
-        <v>0.5914629895016219</v>
+        <v>0.2664222135953764</v>
       </c>
       <c r="N23">
-        <v>0.743604175658291</v>
+        <v>1.258060211958259</v>
       </c>
       <c r="O23">
-        <v>1.669754970054697</v>
+        <v>2.398967321383424</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.861643855951058</v>
+        <v>1.093614990347874</v>
       </c>
       <c r="C24">
-        <v>0.4651864683222584</v>
+        <v>0.2402553786168653</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03589461349209966</v>
+        <v>0.1059962664696661</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007824115533702493</v>
+        <v>0.002418841680836887</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.251296606789289</v>
+        <v>0.6182677744598877</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.212552218333272</v>
+        <v>0.2137516492075804</v>
       </c>
       <c r="M24">
-        <v>0.5064306977959774</v>
+        <v>0.2426124375608438</v>
       </c>
       <c r="N24">
-        <v>0.7611115162933473</v>
+        <v>1.268696591718992</v>
       </c>
       <c r="O24">
-        <v>1.528954933384455</v>
+        <v>2.399758339479945</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.34404696847065</v>
+        <v>0.9402223319801806</v>
       </c>
       <c r="C25">
-        <v>0.3990648481389485</v>
+        <v>0.2186880470454469</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03786559433935954</v>
+        <v>0.1075340914646712</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.000789279126985603</v>
+        <v>0.002423176157997747</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2533166548794874</v>
+        <v>0.6292118113341054</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1815235443786207</v>
+        <v>0.2074744823463348</v>
       </c>
       <c r="M25">
-        <v>0.4156932264770106</v>
+        <v>0.2171303047389728</v>
       </c>
       <c r="N25">
-        <v>0.7845613059572969</v>
+        <v>1.281997865483554</v>
       </c>
       <c r="O25">
-        <v>1.395275056842138</v>
+        <v>2.406777472351678</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_245/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_245/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8274975676880558</v>
+        <v>1.964924869524708</v>
       </c>
       <c r="C2">
-        <v>0.2026139200537216</v>
+        <v>0.3503897090996162</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1087810853287143</v>
+        <v>0.0394888605846333</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002426634525031254</v>
+        <v>0.0007945672584487312</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6385094511219727</v>
+        <v>0.2575844415961974</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.203175727809878</v>
+        <v>0.159397056374047</v>
       </c>
       <c r="M2">
-        <v>0.1985441872694409</v>
+        <v>0.3495044319857996</v>
       </c>
       <c r="N2">
-        <v>1.293369678917308</v>
+        <v>0.8054240324555835</v>
       </c>
       <c r="O2">
-        <v>2.417229885097413</v>
+        <v>1.310262395762351</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7512529339883827</v>
+        <v>1.708744208823219</v>
       </c>
       <c r="C3">
-        <v>0.1916004488447243</v>
+        <v>0.3173508387125707</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1096980128860374</v>
+        <v>0.04069234667129695</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002429146138284032</v>
+        <v>0.0007983032209150642</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6455826104999822</v>
+        <v>0.26204028618411</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2004646143127573</v>
+        <v>0.1447875964073333</v>
       </c>
       <c r="M3">
-        <v>0.1860604183255745</v>
+        <v>0.3049331090750655</v>
       </c>
       <c r="N3">
-        <v>1.302063999176454</v>
+        <v>0.8216551509985521</v>
       </c>
       <c r="O3">
-        <v>2.427600879706233</v>
+        <v>1.259994389977237</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7045184088714791</v>
+        <v>1.551676422612019</v>
       </c>
       <c r="C4">
-        <v>0.1847795741160922</v>
+        <v>0.2970226816662347</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1102965299168699</v>
+        <v>0.04148103880108911</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002430771511706303</v>
+        <v>0.0008006745365955266</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6503059831908793</v>
+        <v>0.2654945952180263</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1988999989937028</v>
+        <v>0.1359883806196009</v>
       </c>
       <c r="M4">
-        <v>0.1784516546754773</v>
+        <v>0.2776763666277802</v>
       </c>
       <c r="N4">
-        <v>1.307890540282827</v>
+        <v>0.8326064917309708</v>
       </c>
       <c r="O4">
-        <v>2.435587458445767</v>
+        <v>1.232438901650283</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6854951171162895</v>
+        <v>1.487708481476318</v>
       </c>
       <c r="C5">
-        <v>0.1819854238413825</v>
+        <v>0.2887260020819298</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1105493743245409</v>
+        <v>0.04181476477975776</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002431454855690387</v>
+        <v>0.0008016606627623164</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6523263944119009</v>
+        <v>0.2670754242636129</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1982876215282161</v>
+        <v>0.1324429887036871</v>
       </c>
       <c r="M5">
-        <v>0.1753653973838603</v>
+        <v>0.2665926583514988</v>
       </c>
       <c r="N5">
-        <v>1.310387829895291</v>
+        <v>0.8373104286589381</v>
       </c>
       <c r="O5">
-        <v>2.439248778321513</v>
+        <v>1.221997887928481</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6823376450221872</v>
+        <v>1.477088444977824</v>
       </c>
       <c r="C6">
-        <v>0.1815205802414823</v>
+        <v>0.2873475111224622</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1105918994889628</v>
+        <v>0.04187091907391194</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002431569593995919</v>
+        <v>0.0008018256131659677</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6526676542480985</v>
+        <v>0.2673481664468618</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1981874616234407</v>
+        <v>0.1318566415939415</v>
       </c>
       <c r="M6">
-        <v>0.1748538012519134</v>
+        <v>0.2647535295816006</v>
       </c>
       <c r="N6">
-        <v>1.310809932378774</v>
+        <v>0.8381058935042205</v>
       </c>
       <c r="O6">
-        <v>2.439881293404127</v>
+        <v>1.220310513983563</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.704261765717149</v>
+        <v>1.550813597064661</v>
       </c>
       <c r="C7">
-        <v>0.1847419501135903</v>
+        <v>0.2969108443180488</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1102999036354189</v>
+        <v>0.04148548986813339</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002430780642464943</v>
+        <v>0.0008006877551902552</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6503328441715368</v>
+        <v>0.2655152233091584</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1988916380717001</v>
+        <v>0.135940406221259</v>
       </c>
       <c r="M7">
-        <v>0.1784099738407789</v>
+        <v>0.2775267973933779</v>
       </c>
       <c r="N7">
-        <v>1.307923721654852</v>
+        <v>0.8326689626335479</v>
       </c>
       <c r="O7">
-        <v>2.435635189905383</v>
+        <v>1.232294956339928</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8011925676100304</v>
+        <v>1.876534605267494</v>
       </c>
       <c r="C8">
-        <v>0.198828707928044</v>
+        <v>0.3390052816034341</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1090898771582713</v>
+        <v>0.03989338664755415</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002427483291439807</v>
+        <v>0.0007958395520356176</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6408692822157356</v>
+        <v>0.2589671071976021</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2022202146972134</v>
+        <v>0.1543225723750794</v>
       </c>
       <c r="M8">
-        <v>0.1942282180910908</v>
+        <v>0.3341108203125032</v>
       </c>
       <c r="N8">
-        <v>1.296266254751025</v>
+        <v>0.8108119344960514</v>
       </c>
       <c r="O8">
-        <v>2.420469634731063</v>
+        <v>1.292215954276173</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9918608934855797</v>
+        <v>2.518024460690299</v>
       </c>
       <c r="C9">
-        <v>0.2259833581679231</v>
+        <v>0.4213283269589851</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1069982920322254</v>
+        <v>0.03717440000711703</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002421674798611098</v>
+        <v>0.0007869308697086311</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.625332577035838</v>
+        <v>0.2521804772435097</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2095388465632979</v>
+        <v>0.1918549802900031</v>
       </c>
       <c r="M9">
-        <v>0.2256869047645154</v>
+        <v>0.4461475596367563</v>
       </c>
       <c r="N9">
-        <v>1.277272558767564</v>
+        <v>0.7760823625824358</v>
       </c>
       <c r="O9">
-        <v>2.403590992233148</v>
+        <v>1.43807863396998</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.132253242147726</v>
+        <v>2.992447649160511</v>
       </c>
       <c r="C10">
-        <v>0.2456430196029089</v>
+        <v>0.4818462203348304</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1056322804678764</v>
+        <v>0.03543451640549922</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002417804250824028</v>
+        <v>0.0007807275018538517</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6157635399931927</v>
+        <v>0.2514036317196435</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2153959790571349</v>
+        <v>0.2205255883099539</v>
       </c>
       <c r="M10">
-        <v>0.2490593723451298</v>
+        <v>0.5294218678088995</v>
       </c>
       <c r="N10">
-        <v>1.26566601191869</v>
+        <v>0.7559839591266311</v>
       </c>
       <c r="O10">
-        <v>2.399057532363742</v>
+        <v>1.565628299326846</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.196178622355717</v>
+        <v>3.209300935036254</v>
       </c>
       <c r="C11">
-        <v>0.2545226664589393</v>
+        <v>0.5094271424580938</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1050477374489445</v>
+        <v>0.03470173071915994</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002416128794583092</v>
+        <v>0.0007779742384625145</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6118119837818128</v>
+        <v>0.2520867494794317</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2181643680961685</v>
+        <v>0.2338515951537801</v>
       </c>
       <c r="M11">
-        <v>0.2597469823635308</v>
+        <v>0.5675874135968968</v>
       </c>
       <c r="N11">
-        <v>1.260893956070539</v>
+        <v>0.7481259114685628</v>
       </c>
       <c r="O11">
-        <v>2.398709456904811</v>
+        <v>1.628815443262852</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.220393029426759</v>
+        <v>3.291596991584413</v>
       </c>
       <c r="C12">
-        <v>0.2578758916685615</v>
+        <v>0.5198823841406579</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1048316746376452</v>
+        <v>0.03443292899019301</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002415506542154874</v>
+        <v>0.0007769410537393042</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6103734347964149</v>
+        <v>0.2525054418835531</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.219227579119206</v>
+        <v>0.2389425594878958</v>
       </c>
       <c r="M12">
-        <v>0.2638018788175955</v>
+        <v>0.5820869131017261</v>
       </c>
       <c r="N12">
-        <v>1.259159787759003</v>
+        <v>0.745344799713429</v>
       </c>
       <c r="O12">
-        <v>2.398824580735038</v>
+        <v>1.653551113728128</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.215177723353634</v>
+        <v>3.273864633916958</v>
       </c>
       <c r="C13">
-        <v>0.2571541308872156</v>
+        <v>0.5176301130856302</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1048779724698878</v>
+        <v>0.03449042975921124</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.00241564001333815</v>
+        <v>0.0007771631573790423</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6106806790537114</v>
+        <v>0.2524079700365043</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2189979367608146</v>
+        <v>0.2378440762637837</v>
       </c>
       <c r="M13">
-        <v>0.2629282441560647</v>
+        <v>0.5789619900396232</v>
       </c>
       <c r="N13">
-        <v>1.259530031274224</v>
+        <v>0.7459349457981475</v>
       </c>
       <c r="O13">
-        <v>2.398788797549173</v>
+        <v>1.648186813637665</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.198170618868687</v>
+        <v>3.216067728240034</v>
       </c>
       <c r="C14">
-        <v>0.2547987256699003</v>
+        <v>0.5102870603147096</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1050298558491836</v>
+        <v>0.03467944064908224</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002416077357102172</v>
+        <v>0.0007778890517298351</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6116924741736689</v>
+        <v>0.2521179232952342</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2182515412223438</v>
+        <v>0.2342695127442198</v>
       </c>
       <c r="M14">
-        <v>0.2600804275203075</v>
+        <v>0.5687793160325398</v>
       </c>
       <c r="N14">
-        <v>1.260749824524716</v>
+        <v>0.7478931500122812</v>
       </c>
       <c r="O14">
-        <v>2.398713976862894</v>
+        <v>1.630833875451259</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.187754179240642</v>
+        <v>3.18068960459118</v>
       </c>
       <c r="C15">
-        <v>0.2533547556920155</v>
+        <v>0.5057907663884293</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1051235775505166</v>
+        <v>0.03479635431585315</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002416346830921794</v>
+        <v>0.000778334895067905</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6123197604460984</v>
+        <v>0.2519614372470258</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.217796288549934</v>
+        <v>0.2320859306040006</v>
       </c>
       <c r="M15">
-        <v>0.2583370575230219</v>
+        <v>0.5625484529854603</v>
       </c>
       <c r="N15">
-        <v>1.261506474140148</v>
+        <v>0.749118246027848</v>
       </c>
       <c r="O15">
-        <v>2.398700317647979</v>
+        <v>1.620311955611584</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.128076659515955</v>
+        <v>2.978299088090978</v>
       </c>
       <c r="C16">
-        <v>0.2450614201785584</v>
+        <v>0.4800450701512489</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1056712226543111</v>
+        <v>0.03548360770363423</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002417915457038833</v>
+        <v>0.000780908777509402</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6160298694909905</v>
+        <v>0.2513807661364922</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2152171444485731</v>
+        <v>0.2196607377765076</v>
       </c>
       <c r="M16">
-        <v>0.2483620061749434</v>
+        <v>0.5269338908992651</v>
       </c>
       <c r="N16">
-        <v>1.26598808543266</v>
+        <v>0.7565241786540184</v>
       </c>
       <c r="O16">
-        <v>2.399114811172808</v>
+        <v>1.56160828072052</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.091480852753591</v>
+        <v>2.854424620350869</v>
       </c>
       <c r="C17">
-        <v>0.2399573200645477</v>
+        <v>0.4642664564139523</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1060166195389227</v>
+        <v>0.03592042146858532</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002418899559327077</v>
+        <v>0.0007825050434625839</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6184087868985166</v>
+        <v>0.2512975913733939</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2136615004606597</v>
+        <v>0.2121136243653865</v>
       </c>
       <c r="M17">
-        <v>0.2422566500025454</v>
+        <v>0.5051624604995268</v>
       </c>
       <c r="N17">
-        <v>1.268867388351211</v>
+        <v>0.7614033302604923</v>
       </c>
       <c r="O17">
-        <v>2.399808448581751</v>
+        <v>1.526963315751459</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.070437662347956</v>
+        <v>2.783270900920684</v>
       </c>
       <c r="C18">
-        <v>0.2370155965576259</v>
+        <v>0.4551955838641391</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1062187529492311</v>
+        <v>0.03617717441187285</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002419473618898123</v>
+        <v>0.0007834296670419631</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6198148578431102</v>
+        <v>0.2513466146263106</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2127765233942398</v>
+        <v>0.2077991690443071</v>
       </c>
       <c r="M18">
-        <v>0.2387502348259147</v>
+        <v>0.4926664068715567</v>
       </c>
       <c r="N18">
-        <v>1.270571292514326</v>
+        <v>0.7643299985922667</v>
       </c>
       <c r="O18">
-        <v>2.400368735230103</v>
+        <v>1.507518343969025</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.063313829966091</v>
+        <v>2.759195031674835</v>
       </c>
       <c r="C19">
-        <v>0.2360185571340878</v>
+        <v>0.4521250222022957</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.106287788169297</v>
+        <v>0.03626504540297937</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0024196693664835</v>
+        <v>0.000783743857544566</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6202974153492669</v>
+        <v>0.2513795271153825</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2124785685008277</v>
+        <v>0.206342795521465</v>
       </c>
       <c r="M19">
-        <v>0.2375639271657946</v>
+        <v>0.488439791501122</v>
       </c>
       <c r="N19">
-        <v>1.271156419462812</v>
+        <v>0.765341292901546</v>
       </c>
       <c r="O19">
-        <v>2.400586133212158</v>
+        <v>1.501015454947492</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.095375953952896</v>
+        <v>2.867601168550493</v>
       </c>
       <c r="C20">
-        <v>0.2405012802727242</v>
+        <v>0.4659456188171021</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1059794923638435</v>
+        <v>0.0358733499572983</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.00241879396917367</v>
+        <v>0.0007823344493978071</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6181516362639776</v>
+        <v>0.2512963433998259</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2138260888517607</v>
+        <v>0.2129142630352021</v>
       </c>
       <c r="M20">
-        <v>0.2429060365687548</v>
+        <v>0.5074773009684179</v>
       </c>
       <c r="N20">
-        <v>1.268555934841942</v>
+        <v>0.7608714156598637</v>
       </c>
       <c r="O20">
-        <v>2.399717910063799</v>
+        <v>1.530600997175497</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.203165832043737</v>
+        <v>3.233038991760679</v>
       </c>
       <c r="C21">
-        <v>0.255490819022782</v>
+        <v>0.512443565511802</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1049851005024554</v>
+        <v>0.03462368573459162</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002415948567998071</v>
+        <v>0.0007776755872450684</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6113937154807623</v>
+        <v>0.2521986833968093</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2184703723113586</v>
+        <v>0.2353182031912127</v>
       </c>
       <c r="M21">
-        <v>0.2609166923254094</v>
+        <v>0.5717688855735332</v>
       </c>
       <c r="N21">
-        <v>1.260389563962477</v>
+        <v>0.7473126163391086</v>
       </c>
       <c r="O21">
-        <v>2.39872924842075</v>
+        <v>1.635908378651266</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.273654374632258</v>
+        <v>3.472929083901477</v>
       </c>
       <c r="C22">
-        <v>0.2652330449294311</v>
+        <v>0.5428983693004454</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1043660430787217</v>
+        <v>0.03385772399124498</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002414160056544225</v>
+        <v>0.0007746854027242066</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6073140830137795</v>
+        <v>0.2537267055782593</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2215923941707985</v>
+        <v>0.2502229988703135</v>
       </c>
       <c r="M22">
-        <v>0.2727326497463451</v>
+        <v>0.6140645536904614</v>
       </c>
       <c r="N22">
-        <v>1.255477266517886</v>
+        <v>0.7395902201262601</v>
       </c>
       <c r="O22">
-        <v>2.399522610089349</v>
+        <v>1.709476646876283</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.236029967128275</v>
+        <v>3.34478831551246</v>
       </c>
       <c r="C23">
-        <v>0.2600384553234676</v>
+        <v>0.5266367775548702</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1046936274952666</v>
+        <v>0.03426180195779072</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002415108129327538</v>
+        <v>0.0007762764795259043</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6094605883122455</v>
+        <v>0.2528215008911054</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2199181997372932</v>
+        <v>0.2422426446341888</v>
       </c>
       <c r="M23">
-        <v>0.2664222135953764</v>
+        <v>0.591462989501629</v>
       </c>
       <c r="N23">
-        <v>1.258060211958259</v>
+        <v>0.743604175658362</v>
       </c>
       <c r="O23">
-        <v>2.398967321383424</v>
+        <v>1.66975497005464</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.093614990347874</v>
+        <v>2.861643855950945</v>
       </c>
       <c r="C24">
-        <v>0.2402553786168653</v>
+        <v>0.4651864683221447</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1059962664696661</v>
+        <v>0.03589461349211476</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002418841680836887</v>
+        <v>0.0007824115534227907</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6182677744598877</v>
+        <v>0.2512966067892819</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2137516492075804</v>
+        <v>0.2125522183333146</v>
       </c>
       <c r="M24">
-        <v>0.2426124375608438</v>
+        <v>0.5064306977959845</v>
       </c>
       <c r="N24">
-        <v>1.268696591718992</v>
+        <v>0.7611115162932762</v>
       </c>
       <c r="O24">
-        <v>2.399758339479945</v>
+        <v>1.528954933384512</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9402223319801806</v>
+        <v>2.34404696847065</v>
       </c>
       <c r="C25">
-        <v>0.2186880470454469</v>
+        <v>0.3990648481384937</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1075340914646712</v>
+        <v>0.03786559433937065</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002423176157997747</v>
+        <v>0.0007892791269267675</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6292118113341054</v>
+        <v>0.2533166548795016</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2074744823463348</v>
+        <v>0.1815235443786278</v>
       </c>
       <c r="M25">
-        <v>0.2171303047389728</v>
+        <v>0.4156932264770035</v>
       </c>
       <c r="N25">
-        <v>1.281997865483554</v>
+        <v>0.7845613059572969</v>
       </c>
       <c r="O25">
-        <v>2.406777472351678</v>
+        <v>1.395275056842252</v>
       </c>
     </row>
   </sheetData>
